--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Bradford_Forest_Project\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Howley\POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F628A-B227-4453-BA4C-B5A1DE11F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E80D61-37DF-4F36-8504-1DC34FE3EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>Sampled</t>
   </si>
@@ -68,6 +68,15 @@
     <t>Tray weight (g)</t>
   </si>
   <si>
+    <t>15-4</t>
+  </si>
+  <si>
+    <t>6_93</t>
+  </si>
+  <si>
+    <t>5-546</t>
+  </si>
+  <si>
     <t>6a</t>
   </si>
   <si>
@@ -78,6 +87,78 @@
   </si>
   <si>
     <t>mg/L</t>
+  </si>
+  <si>
+    <t>5GW5</t>
+  </si>
+  <si>
+    <t>5-547</t>
+  </si>
+  <si>
+    <t>14-500</t>
+  </si>
+  <si>
+    <t>5-510</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>7-626</t>
+  </si>
+  <si>
+    <t>5-582</t>
+  </si>
+  <si>
+    <t>15-268</t>
+  </si>
+  <si>
+    <t>14-610</t>
+  </si>
+  <si>
+    <t>9_77</t>
+  </si>
+  <si>
+    <t>14-115</t>
+  </si>
+  <si>
+    <t>9-332</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>9-439</t>
+  </si>
+  <si>
+    <t>7-622</t>
+  </si>
+  <si>
+    <t>7-341</t>
+  </si>
+  <si>
+    <t>14-538</t>
+  </si>
+  <si>
+    <t>3_21</t>
+  </si>
+  <si>
+    <t>6-300</t>
+  </si>
+  <si>
+    <t>3_34</t>
+  </si>
+  <si>
+    <t>13-263</t>
+  </si>
+  <si>
+    <t>13-274</t>
+  </si>
+  <si>
+    <t>13-267</t>
+  </si>
+  <si>
+    <t>3-311</t>
   </si>
 </sst>
 </file>
@@ -125,12 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,24 +528,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45353</v>
       </c>
@@ -523,18 +606,18 @@
         <v>1.2091000000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <f>(F2-H2)*1000</f>
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K36" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K69" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45019</v>
       </c>
@@ -560,7 +643,7 @@
         <v>1.2303999999999999</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <f>(F3-H3)*1000</f>
@@ -571,7 +654,7 @@
         <v>6.6339066339067223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45355</v>
       </c>
@@ -597,10 +680,10 @@
         <v>1.216</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J36" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J69" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -608,7 +691,7 @@
         <v>7.326007326007332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45355</v>
       </c>
@@ -634,7 +717,7 @@
         <v>1.1853</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
@@ -645,7 +728,7 @@
         <v>8.1936685288639843</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45376</v>
       </c>
@@ -671,7 +754,7 @@
         <v>1.2217</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
@@ -682,7 +765,7 @@
         <v>9.1726618705033847</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45376</v>
       </c>
@@ -708,7 +791,7 @@
         <v>1.2463</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
@@ -719,1075 +802,2263 @@
         <v>7.089552238806017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>688</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45355</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>656</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>1.1113</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45401</v>
-      </c>
-      <c r="F8">
-        <v>1.2322</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45401</v>
-      </c>
-      <c r="H8">
-        <v>1.2306999999999999</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>1.5000000000000568</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>2.2865853658537452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9" s="2">
-        <v>45385</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1033</v>
-      </c>
-      <c r="D9">
-        <v>1.0872999999999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45401</v>
-      </c>
-      <c r="F9">
-        <v>1.2131000000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45401</v>
-      </c>
-      <c r="H9">
-        <v>1.2121999999999999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.87124878993235522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A10" s="2">
-        <v>45047</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>131</v>
-      </c>
-      <c r="D10">
-        <v>1.0888</v>
       </c>
       <c r="E10" s="3">
         <v>45401</v>
       </c>
       <c r="F10">
-        <v>1.2369000000000001</v>
+        <v>1.2322</v>
       </c>
       <c r="G10" s="2">
         <v>45401</v>
       </c>
       <c r="H10">
-        <v>1.2275</v>
+        <v>1.2306999999999999</v>
       </c>
       <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000568</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.2865853658537452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>9.400000000000075</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>71.755725190840266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A11" s="2">
-        <v>45376</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
       <c r="C11">
-        <v>525</v>
+        <v>812</v>
       </c>
       <c r="D11">
-        <v>1.1040000000000001</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="E11" s="3">
         <v>45401</v>
       </c>
       <c r="F11">
-        <v>1.2377</v>
+        <v>1.25</v>
       </c>
       <c r="G11" s="2">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="H11">
-        <v>1.2377</v>
+        <v>1.24</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <f>(F11-H11)*1000</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10.000000000000009</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+        <v>12.315270935960601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45019</v>
+        <v>45385</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>731</v>
+        <v>1033</v>
       </c>
       <c r="D12">
-        <v>1.079</v>
+        <v>1.0872999999999999</v>
       </c>
       <c r="E12" s="3">
         <v>45401</v>
       </c>
       <c r="F12">
-        <v>1.2155</v>
+        <v>1.2131000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="H12">
-        <v>1.2070000000000001</v>
+        <v>1.2121999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>8.499999999999952</v>
+        <v>0.90000000000012292</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>11.627906976744121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+        <v>0.87124878993235522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45376</v>
+        <v>45391</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>5161</v>
       </c>
       <c r="C13">
-        <v>537</v>
+        <v>985</v>
       </c>
       <c r="D13">
-        <v>1.0994999999999999</v>
+        <v>1.1034999999999999</v>
       </c>
       <c r="E13" s="3">
         <v>45401</v>
       </c>
       <c r="F13">
-        <v>1.2297</v>
+        <v>1.2383999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="H13">
-        <v>1.2273000000000001</v>
+        <v>1.2253000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>2.3999999999999577</v>
+        <v>13.09999999999989</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>4.4692737430166805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+        <v>13.29949238578669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45376</v>
+        <v>45391</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>5321</v>
       </c>
       <c r="C14">
-        <v>355</v>
+        <v>560</v>
       </c>
       <c r="D14">
-        <v>1.0685</v>
+        <v>1.1113999999999999</v>
       </c>
       <c r="E14" s="3">
         <v>45401</v>
       </c>
       <c r="F14">
-        <v>1.2036</v>
+        <v>1.25</v>
       </c>
       <c r="G14" s="2">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="H14">
-        <v>1.2002999999999999</v>
+        <v>1.2337</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>3.3000000000000806</v>
+        <v>16.299999999999983</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>9.2957746478875514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+        <v>29.107142857142826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44280</v>
+        <v>45047</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>529</v>
+        <v>131</v>
       </c>
       <c r="D15">
-        <v>1.1286</v>
+        <v>1.0888</v>
       </c>
       <c r="E15" s="3">
         <v>45401</v>
       </c>
       <c r="F15">
-        <v>1.2665</v>
+        <v>1.2369000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="H15">
-        <v>1.2592000000000001</v>
+        <v>1.2275</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>7.2999999999998622</v>
+        <v>9.400000000000075</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>13.79962192816609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+        <v>71.755725190840266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45400</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
+        <v>45376</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="D16">
-        <v>1.1056999999999999</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="E16" s="3">
         <v>45401</v>
       </c>
       <c r="F16">
-        <v>1.2746</v>
+        <v>1.2377</v>
       </c>
       <c r="G16" s="2">
         <v>45404</v>
       </c>
       <c r="H16">
-        <v>1.2547999999999999</v>
+        <v>1.2377</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>19.80000000000004</v>
+        <f>(F16-H16)*1000</f>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>45.102505694760907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45400</v>
+        <v>45019</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>561</v>
+        <v>731</v>
       </c>
       <c r="D17">
-        <v>1.1068</v>
+        <v>1.079</v>
       </c>
       <c r="E17" s="3">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F17">
-        <v>1.19</v>
+        <v>1.2155</v>
       </c>
       <c r="G17" s="2">
         <v>45404</v>
       </c>
       <c r="H17">
-        <v>1.1869000000000001</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>3.0999999999998806</v>
+        <v>8.499999999999952</v>
       </c>
       <c r="K17">
-        <f>J17/(C17/1000)</f>
-        <v>5.525846702317077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>11.627906976744121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45355</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
+        <v>45376</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D18">
-        <v>1.1036999999999999</v>
+        <v>1.0994999999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F18">
-        <v>1.2262</v>
+        <v>1.2297</v>
       </c>
       <c r="G18" s="2">
         <v>45404</v>
       </c>
       <c r="H18">
-        <v>1.2230000000000001</v>
+        <v>1.2273000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>3.1999999999998696</v>
+        <v>2.3999999999999577</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>5.9149722735672263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+        <v>4.4692737430166805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45355</v>
+        <v>45376</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>554</v>
+        <v>355</v>
       </c>
       <c r="D19">
-        <v>1.1012</v>
+        <v>1.0685</v>
       </c>
       <c r="E19" s="3">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F19">
-        <v>1.2226999999999999</v>
+        <v>1.2036</v>
       </c>
       <c r="G19" s="2">
         <v>45404</v>
       </c>
       <c r="H19">
-        <v>1.2198</v>
+        <v>1.2002999999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>2.8999999999999027</v>
+        <v>3.3000000000000806</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>5.2346570397110153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+        <v>9.2957746478875514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45413</v>
+        <v>44280</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>247</v>
+        <v>529</v>
       </c>
       <c r="D20">
-        <v>1.0934999999999999</v>
+        <v>1.1286</v>
       </c>
       <c r="E20" s="3">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F20">
-        <v>1.2293000000000001</v>
+        <v>1.2665</v>
       </c>
       <c r="G20" s="2">
         <v>45404</v>
       </c>
       <c r="H20">
-        <v>1.2262999999999999</v>
+        <v>1.2592000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>3.0000000000001137</v>
+        <v>7.2999999999998622</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>12.145748987854711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+        <v>13.79962192816609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45400</v>
       </c>
-      <c r="B21">
-        <v>6</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>555</v>
+        <v>439</v>
       </c>
       <c r="D21">
-        <v>1.111</v>
+        <v>1.1056999999999999</v>
       </c>
       <c r="E21" s="3">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F21">
-        <v>1.2324999999999999</v>
+        <v>1.2746</v>
       </c>
       <c r="G21" s="2">
         <v>45404</v>
       </c>
       <c r="H21">
-        <v>1.2289000000000001</v>
+        <v>1.2547999999999999</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>3.5999999999998256</v>
+        <v>19.80000000000004</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>6.4864864864861715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+        <v>45.102505694760907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45047</v>
+        <v>45400</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>744</v>
+        <v>561</v>
       </c>
       <c r="D22">
-        <v>1.0780000000000001</v>
+        <v>1.1068</v>
       </c>
       <c r="E22" s="3">
         <v>45404</v>
       </c>
       <c r="F22">
-        <v>1.2139</v>
+        <v>1.19</v>
       </c>
       <c r="G22" s="2">
         <v>45404</v>
       </c>
       <c r="H22">
-        <v>1.2075</v>
+        <v>1.1869000000000001</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>6.3999999999999613</v>
+        <v>3.0999999999998806</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>8.6021505376343566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+        <f>J22/(C22/1000)</f>
+        <v>5.525846702317077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45355</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D23">
-        <v>1.1011</v>
+        <v>1.1036999999999999</v>
       </c>
       <c r="E23" s="3">
         <v>45404</v>
       </c>
       <c r="F23">
-        <v>1.2254</v>
+        <v>1.2262</v>
       </c>
       <c r="G23" s="2">
         <v>45404</v>
       </c>
       <c r="H23">
-        <v>1.222</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>3.4000000000000696</v>
+        <v>3.1999999999998696</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>6.126126126126251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+        <v>5.9149722735672263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45355</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>554</v>
+      </c>
+      <c r="D24">
+        <v>1.1012</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F24">
+        <v>1.2226999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45404</v>
+      </c>
+      <c r="H24">
+        <v>1.2198</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999027</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>5.2346570397110153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>247</v>
+      </c>
+      <c r="D25">
+        <v>1.0934999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F25">
+        <v>1.2293000000000001</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45404</v>
+      </c>
+      <c r="H25">
+        <v>1.2262999999999999</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>12.145748987854711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B26">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>541</v>
-      </c>
-      <c r="D24">
-        <v>1.1076999999999999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F24">
-        <v>1.2382</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45404</v>
-      </c>
-      <c r="H24">
-        <v>1.232</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>6.1999999999999833</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>11.460258780036938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A25" s="2">
-        <v>45376</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>545</v>
-      </c>
-      <c r="D25">
-        <v>1.0759000000000001</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F25">
-        <v>1.2084999999999999</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45405</v>
-      </c>
-      <c r="H25">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>1.4999999999998348</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>2.752293577981348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A26" s="2">
-        <v>45385</v>
-      </c>
-      <c r="B26">
+      <c r="C26">
+        <v>555</v>
+      </c>
+      <c r="D26">
+        <v>1.111</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F26">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45404</v>
+      </c>
+      <c r="H26">
+        <v>1.2289000000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>3.5999999999998256</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>6.4864864864861715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>509</v>
-      </c>
-      <c r="D26">
-        <v>1.1204000000000001</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45404</v>
-      </c>
-      <c r="F26">
-        <v>1.2556</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45405</v>
-      </c>
-      <c r="H26">
-        <v>1.2502</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>5.4000000000000714</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>10.609037328094443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A27" s="2">
-        <v>45376</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
       <c r="C27">
-        <v>546</v>
+        <v>744</v>
       </c>
       <c r="D27">
-        <v>1.1045</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="E27" s="3">
         <v>45404</v>
       </c>
       <c r="F27">
-        <v>1.2387999999999999</v>
+        <v>1.2139</v>
       </c>
       <c r="G27" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="H27">
-        <v>1.236</v>
+        <v>1.2075</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>2.7999999999999137</v>
+        <v>6.3999999999999613</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>5.1282051282049697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+        <v>8.6021505376343566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45376</v>
+        <v>45355</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
       <c r="C28">
-        <v>831</v>
+        <v>555</v>
       </c>
       <c r="D28">
-        <v>1.1169</v>
+        <v>1.1011</v>
       </c>
       <c r="E28" s="3">
         <v>45404</v>
       </c>
       <c r="F28">
-        <v>1.2305999999999999</v>
+        <v>1.2254</v>
       </c>
       <c r="G28" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="H28">
-        <v>1.2259</v>
+        <v>1.222</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>4.6999999999999265</v>
+        <v>3.4000000000000696</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>5.6558363417568316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+        <v>6.126126126126251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45385</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
+        <v>45355</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>348</v>
+        <v>541</v>
       </c>
       <c r="D29">
-        <v>1.0662</v>
+        <v>1.1076999999999999</v>
       </c>
       <c r="E29" s="3">
         <v>45404</v>
       </c>
       <c r="F29">
-        <v>1.2013</v>
+        <v>1.2382</v>
       </c>
       <c r="G29" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="H29">
-        <v>1.1933</v>
+        <v>1.232</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>8.0000000000000071</v>
+        <v>6.1999999999999833</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>22.98850574712646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+        <v>11.460258780036938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45047</v>
+        <v>45376</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>682</v>
+        <v>545</v>
       </c>
       <c r="D30">
-        <v>1.1352</v>
+        <v>1.0759000000000001</v>
       </c>
       <c r="E30" s="3">
         <v>45404</v>
       </c>
       <c r="F30">
-        <v>1.2614000000000001</v>
+        <v>1.2084999999999999</v>
       </c>
       <c r="G30" s="2">
         <v>45405</v>
       </c>
       <c r="H30">
-        <v>1.2585</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>2.9000000000001247</v>
+        <v>1.4999999999998348</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>4.2521994134899188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+        <v>2.752293577981348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45355</v>
+        <v>45385</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="D31">
-        <v>1.1133</v>
+        <v>1.1204000000000001</v>
       </c>
       <c r="E31" s="3">
         <v>45404</v>
       </c>
       <c r="F31">
-        <v>1.2350000000000001</v>
+        <v>1.2556</v>
       </c>
       <c r="G31" s="2">
         <v>45405</v>
       </c>
       <c r="H31">
-        <v>1.2323999999999999</v>
+        <v>1.2502</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>2.6000000000001577</v>
+        <v>5.4000000000000714</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>4.676258992806039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+        <v>10.609037328094443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45355</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
+        <v>45376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="D32">
-        <v>1.1169</v>
+        <v>1.1045</v>
       </c>
       <c r="E32" s="3">
         <v>45404</v>
       </c>
       <c r="F32">
-        <v>1.2456</v>
+        <v>1.2387999999999999</v>
       </c>
       <c r="G32" s="2">
         <v>45405</v>
       </c>
       <c r="H32">
-        <v>1.2382</v>
+        <v>1.236</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>7.4000000000000732</v>
+        <v>2.7999999999999137</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>13.120567375886656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+        <v>5.1282051282049697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45385</v>
+        <v>45376</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>754</v>
+        <v>831</v>
       </c>
       <c r="D33">
-        <v>1.7122999999999999</v>
+        <v>1.1169</v>
       </c>
       <c r="E33" s="3">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="F33">
-        <v>1.2029000000000001</v>
+        <v>1.2305999999999999</v>
       </c>
       <c r="G33" s="2">
         <v>45405</v>
       </c>
       <c r="H33">
-        <v>1.9570000000000001</v>
+        <v>1.2259</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>-754.1</v>
+        <v>4.6999999999999265</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>-1000.132625994695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+        <v>5.6558363417568316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45355</v>
-      </c>
-      <c r="B34">
-        <v>15</v>
+        <v>45385</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>550</v>
+        <v>348</v>
       </c>
       <c r="D34">
-        <v>1.8281000000000001</v>
+        <v>1.0662</v>
       </c>
       <c r="E34" s="3">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="F34">
-        <v>1.2236</v>
+        <v>1.2013</v>
       </c>
       <c r="G34" s="2">
         <v>45405</v>
       </c>
       <c r="H34">
-        <v>1.222</v>
+        <v>1.1933</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>1.6000000000000458</v>
+        <v>8.0000000000000071</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>2.9090909090909922</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+        <v>22.98850574712646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45385</v>
+        <v>45047</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>682</v>
       </c>
       <c r="D35">
-        <v>1.8366</v>
+        <v>1.1352</v>
       </c>
       <c r="E35" s="3">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="F35">
-        <v>1.2403</v>
+        <v>1.2614000000000001</v>
       </c>
       <c r="G35" s="2">
         <v>45405</v>
       </c>
       <c r="H35">
-        <v>1.2354000000000001</v>
+        <v>1.2585</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>4.8999999999999044</v>
-      </c>
-      <c r="K35" t="e">
-        <f>J35/(C35/1000)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+        <v>2.9000000000001247</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>4.2521994134899188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45047</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
+        <v>45355</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>143</v>
+        <v>556</v>
       </c>
       <c r="D36">
-        <v>1.7170000000000001</v>
+        <v>1.1133</v>
       </c>
       <c r="E36" s="3">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="F36">
-        <v>1.2000999999999999</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="G36" s="2">
         <v>45405</v>
       </c>
       <c r="H36">
+        <v>1.2323999999999999</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>2.6000000000001577</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>4.676258992806039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>564</v>
+      </c>
+      <c r="D37">
+        <v>1.1169</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F37">
+        <v>1.2456</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H37">
+        <v>1.2382</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000732</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>13.120567375886656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>754</v>
+      </c>
+      <c r="D38">
+        <v>1.7122999999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F38">
+        <v>1.2029000000000001</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H38">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-754.1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>-1000.132625994695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>550</v>
+      </c>
+      <c r="D39">
+        <v>1.8281000000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F39">
+        <v>1.2236</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H39">
+        <v>1.222</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000458</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>2.9090909090909922</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>1.8366</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F40">
+        <v>1.2403</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H40">
+        <v>1.2354000000000001</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999044</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>143</v>
+      </c>
+      <c r="D41">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F41">
+        <v>1.2000999999999999</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H41">
         <v>1.1951000000000001</v>
       </c>
-      <c r="I36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36">
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
         <v>4.9999999999998934</v>
       </c>
-      <c r="K36">
+      <c r="K41">
         <f t="shared" si="0"/>
         <v>34.965034965034221</v>
       </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>490</v>
+      </c>
+      <c r="D42">
+        <v>1.8962000000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F42">
+        <v>1.2297</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H42">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999137</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>5.7142857142855386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>346</v>
+      </c>
+      <c r="D43">
+        <v>1.8547</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F43">
+        <v>1.2244999999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H43">
+        <v>1.1986000000000001</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>25.899999999999814</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>74.855491329479236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>862</v>
+      </c>
+      <c r="D44">
+        <v>2.2010999999999998</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F44">
+        <v>1.2453000000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H44">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>20.100000000000009</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>23.317865429234349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1052</v>
+      </c>
+      <c r="D45">
+        <v>1.8827</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45405</v>
+      </c>
+      <c r="F45">
+        <v>1.2286999999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H45">
+        <v>1.2253000000000001</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>3.3999999999998476</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>3.231939163497954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>949</v>
+      </c>
+      <c r="D46">
+        <v>1.01759</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F46">
+        <v>1.2009000000000001</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H46">
+        <v>1.1904999999999999</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>10.400000000000187</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>10.958904109589238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <v>1.1039000000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F47">
+        <v>1.2768999999999999</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H47">
+        <v>1.2248000000000001</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>52.09999999999981</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>208.39999999999924</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>579</v>
+      </c>
+      <c r="D48">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F48">
+        <v>1.2483</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H48">
+        <v>1.2237</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>24.599999999999955</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>42.487046632124276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>288</v>
+      </c>
+      <c r="D49">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F49">
+        <v>1.2302</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H49">
+        <v>1.2112000000000001</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>18.999999999999908</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>65.972222222221902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>529</v>
+      </c>
+      <c r="D50">
+        <v>1.1114999999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F50">
+        <v>1.2347999999999999</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H50">
+        <v>1.2267999999999999</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>15.122873345935741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>952</v>
+      </c>
+      <c r="D51">
+        <v>1.0778000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F51">
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H51">
+        <v>1.196</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>12.499999999999956</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>13.130252100840289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>397</v>
+      </c>
+      <c r="D52">
+        <v>1.1027</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F52">
+        <v>1.2302999999999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H52">
+        <v>1.2177</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>12.599999999999945</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>31.738035264483486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>400</v>
+      </c>
+      <c r="D53">
+        <v>1.1079000000000001</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F53">
+        <v>1.2283999999999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H53">
+        <v>1.2244999999999999</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000146</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>9.7500000000000355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>994</v>
+      </c>
+      <c r="D54">
+        <v>1.0685</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F54">
+        <v>1.196</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H54">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>8.04828973843059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>1080</v>
+      </c>
+      <c r="D55">
+        <v>1.1212</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F55">
+        <v>1.2415</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H55">
+        <v>1.2397</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000238</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>519</v>
+      </c>
+      <c r="D56">
+        <v>1.1048</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F56">
+        <v>1.2286999999999999</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H56">
+        <v>1.2241</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999375</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>8.8631984585740611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>1049</v>
+      </c>
+      <c r="D57">
+        <v>1.1169</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F57">
+        <v>1.2835000000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H57">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>22.500000000000185</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>21.448999046711332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>525</v>
+      </c>
+      <c r="D58">
+        <v>1.0658000000000001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F58">
+        <v>1.1867000000000001</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H58">
+        <v>1.1837</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>5.7142857142859302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1058</v>
+      </c>
+      <c r="D59">
+        <v>1.1352</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F59">
+        <v>1.2576000000000001</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H59">
+        <v>1.2555000000000001</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999908</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>1.9848771266540555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>556</v>
+      </c>
+      <c r="D60">
+        <v>1.1131</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F60">
+        <v>1.2321</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H60">
+        <v>1.2311000000000001</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>1.7985611510789385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>934</v>
+      </c>
+      <c r="D61">
+        <v>1.1169</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45425</v>
+      </c>
+      <c r="F61">
+        <v>1.2364999999999999</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H61">
+        <v>1.2337</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999137</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>2.9978586723767813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <v>568</v>
+      </c>
+      <c r="D62">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F62">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H62">
+        <v>1.198</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>9.000000000000119</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>15.845070422535422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <v>497</v>
+      </c>
+      <c r="D63">
+        <v>1.1043000000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F63">
+        <v>1.2472000000000001</v>
+      </c>
+      <c r="G63" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H63">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>22.000000000000021</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>44.265593561368256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64">
+        <v>439</v>
+      </c>
+      <c r="D64">
+        <v>1.1015999999999999</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F64">
+        <v>1.2212000000000001</v>
+      </c>
+      <c r="G64" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H64">
+        <v>1.2188000000000001</v>
+      </c>
+      <c r="I64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999577</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>5.4669703872436397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>943</v>
+      </c>
+      <c r="D65">
+        <v>1.0949</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F65">
+        <v>1.2181</v>
+      </c>
+      <c r="G65" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H65">
+        <v>1.2155</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999357</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>2.7571580063626042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>1.1116999999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F66">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H66">
+        <v>1.2302</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>10.800000000000143</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>82.442748091604145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <v>245</v>
+      </c>
+      <c r="D67">
+        <v>1.0784</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F67">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="G67" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H67">
+        <v>1.198</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999833</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>25.306122448979526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>302</v>
+      </c>
+      <c r="D68">
+        <v>1.1028</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F68">
+        <v>1.2298</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H68">
+        <v>1.2234</v>
+      </c>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999613</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>21.192052980132324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>504</v>
+      </c>
+      <c r="D69">
+        <v>1.1084000000000001</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45427</v>
+      </c>
+      <c r="F69">
+        <v>1.2291000000000001</v>
+      </c>
+      <c r="G69" s="3">
+        <v>45427</v>
+      </c>
+      <c r="H69">
+        <v>1.2262999999999999</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>2.8000000000001357</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>5.5555555555558245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Howley\POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Bradford_Forest_Project\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E80D61-37DF-4F36-8504-1DC34FE3EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CF068D-B631-471E-B958-F2EA56AE60C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>Sampled</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>3-311</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Fish Cove</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +548,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +620,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K69" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K79" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -683,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J69" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J79" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -3040,7 +3047,7 @@
         <v>1.2291000000000001</v>
       </c>
       <c r="G69" s="3">
-        <v>45427</v>
+        <v>45496</v>
       </c>
       <c r="H69">
         <v>1.2262999999999999</v>
@@ -3058,7 +3065,344 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G70" s="3"/>
+      <c r="A70" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>529</v>
+      </c>
+      <c r="D70">
+        <v>1.0826</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F70">
+        <v>1.2043999999999999</v>
+      </c>
+      <c r="G70" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H70">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>1.3999999999998458</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="0"/>
+        <v>2.6465028355384606</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>432</v>
+      </c>
+      <c r="D71">
+        <v>1.1233</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F71">
+        <v>1.2398</v>
+      </c>
+      <c r="G71" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H71">
+        <v>1.2372000000000001</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999357</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="0"/>
+        <v>6.0185185185183698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>550</v>
+      </c>
+      <c r="D72">
+        <v>1.105</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F72">
+        <v>1.2228000000000001</v>
+      </c>
+      <c r="G72" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H72">
+        <v>1.2229000000000001</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999988987E-2</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="0"/>
+        <v>-0.18181818181816178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>793</v>
+      </c>
+      <c r="D73">
+        <v>1.0771999999999999</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F73">
+        <v>1.1993</v>
+      </c>
+      <c r="G73" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H73">
+        <v>1.1943999999999999</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>4.9000000000001265</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="0"/>
+        <v>6.1790668348046989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>563</v>
+      </c>
+      <c r="D74">
+        <v>1.0638000000000001</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F74">
+        <v>1.1800999999999999</v>
+      </c>
+      <c r="G74" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H74">
+        <v>1.1808000000000001</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000014495</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="0"/>
+        <v>-1.2433392539967052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>361</v>
+      </c>
+      <c r="D75">
+        <v>1.1354</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F75">
+        <v>1.2552000000000001</v>
+      </c>
+      <c r="G75" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H75">
+        <v>1.2524</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>2.8000000000001357</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="0"/>
+        <v>7.7562326869809857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>1023</v>
+      </c>
+      <c r="D76">
+        <v>1.1133999999999999</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F76">
+        <v>1.2385999999999999</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H76">
+        <v>1.2353000000000001</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>3.2999999999998586</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="0"/>
+        <v>3.2258064516127654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>1015</v>
+      </c>
+      <c r="D77">
+        <v>1.1161000000000001</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F77">
+        <v>1.2362</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H77">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000238</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>1.7733990147783487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B78">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>536</v>
+      </c>
+      <c r="D78">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F78">
+        <v>1.2074</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H78">
+        <v>1.2037</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000366</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="0"/>
+        <v>6.9029850746269332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>548</v>
+      </c>
+      <c r="D79">
+        <v>1.1215999999999999</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F79">
+        <v>1.2463</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45496</v>
+      </c>
+      <c r="H79">
+        <v>1.2396</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>6.6999999999999282</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="0"/>
+        <v>12.226277372262642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Bradford_Forest_Project\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CF068D-B631-471E-B958-F2EA56AE60C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6429F0-FF73-48EA-AA00-B5DBFE113051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>Sampled</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Fish Cove</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -538,21 +541,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70:I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>45353</v>
       </c>
@@ -624,7 +627,7 @@
         <v>75.838926174495739</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>45019</v>
       </c>
@@ -661,7 +664,7 @@
         <v>6.6339066339067223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>45355</v>
       </c>
@@ -698,7 +701,7 @@
         <v>7.326007326007332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>45355</v>
       </c>
@@ -735,7 +738,7 @@
         <v>8.1936685288639843</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>45376</v>
       </c>
@@ -772,7 +775,7 @@
         <v>9.1726618705033847</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>45376</v>
       </c>
@@ -809,7 +812,7 @@
         <v>7.089552238806017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>45397</v>
       </c>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>45391</v>
       </c>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>45355</v>
       </c>
@@ -884,7 +887,7 @@
         <v>2.2865853658537452</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>45397</v>
       </c>
@@ -921,7 +924,7 @@
         <v>12.315270935960601</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>45385</v>
       </c>
@@ -958,7 +961,7 @@
         <v>0.87124878993235522</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>45391</v>
       </c>
@@ -995,7 +998,7 @@
         <v>13.29949238578669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>45391</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>29.107142857142826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>45047</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>71.755725190840266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>45376</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>45019</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>11.627906976744121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>45376</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>4.4692737430166805</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>45376</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>9.2957746478875514</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>44280</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>13.79962192816609</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>45400</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>45.102505694760907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="2">
         <v>45400</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>5.525846702317077</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="2">
         <v>45355</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>5.9149722735672263</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>45355</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>5.2346570397110153</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="2">
         <v>45413</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>12.145748987854711</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="2">
         <v>45400</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>6.4864864864861715</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>45047</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>8.6021505376343566</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="2">
         <v>45355</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>6.126126126126251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>45355</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>11.460258780036938</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>45376</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>2.752293577981348</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="2">
         <v>45385</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>10.609037328094443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>45376</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>5.1282051282049697</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>45376</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>5.6558363417568316</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="2">
         <v>45385</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>22.98850574712646</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="2">
         <v>45047</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>4.2521994134899188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="2">
         <v>45355</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>4.676258992806039</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="2">
         <v>45355</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>13.120567375886656</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="2">
         <v>45385</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>-1000.132625994695</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="2">
         <v>45355</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>2.9090909090909922</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="2">
         <v>45385</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="2">
         <v>45047</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>34.965034965034221</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="2">
         <v>45400</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>5.7142857142855386</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="2">
         <v>45397</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>74.855491329479236</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="2">
         <v>45391</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>23.317865429234349</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="2">
         <v>45391</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>3.231939163497954</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="2">
         <v>45404</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>10.958904109589238</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="2">
         <v>45406</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>208.39999999999924</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45025</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>42.487046632124276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45038</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>65.972222222221902</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="2">
         <v>45406</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>15.122873345935741</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45397</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>13.130252100840289</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45397</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>31.738035264483486</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45397</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>9.7500000000000355</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="2">
         <v>45420</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>8.04828973843059</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="2">
         <v>45420</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>1.6666666666666885</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="2">
         <v>45404</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>8.8631984585740611</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="2">
         <v>45420</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>21.448999046711332</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="2">
         <v>45404</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>5.7142857142859302</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="2">
         <v>45420</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>1.9848771266540555</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45415</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>1.7985611510789385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45404</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>2.9978586723767813</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45415</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>15.845070422535422</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="2">
         <v>45413</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>44.265593561368256</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="2">
         <v>45415</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>5.4669703872436397</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="2">
         <v>45420</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>2.7571580063626042</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="2">
         <v>45413</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>82.442748091604145</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="2">
         <v>45413</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>25.306122448979526</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45413</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>21.192052980132324</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45415</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>5.5555555555558245</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45484</v>
       </c>
@@ -3089,6 +3092,9 @@
       <c r="H70">
         <v>1.2030000000000001</v>
       </c>
+      <c r="I70" t="s">
+        <v>43</v>
+      </c>
       <c r="J70">
         <f t="shared" si="1"/>
         <v>1.3999999999998458</v>
@@ -3098,7 +3104,7 @@
         <v>2.6465028355384606</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>45475</v>
       </c>
@@ -3123,6 +3129,9 @@
       <c r="H71">
         <v>1.2372000000000001</v>
       </c>
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
       <c r="J71">
         <f t="shared" si="1"/>
         <v>2.5999999999999357</v>
@@ -3132,7 +3141,7 @@
         <v>6.0185185185183698</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="2">
         <v>45484</v>
       </c>
@@ -3157,6 +3166,9 @@
       <c r="H72">
         <v>1.2229000000000001</v>
       </c>
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
       <c r="J72">
         <f t="shared" si="1"/>
         <v>-9.9999999999988987E-2</v>
@@ -3166,7 +3178,7 @@
         <v>-0.18181818181816178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="2">
         <v>45442</v>
       </c>
@@ -3191,6 +3203,9 @@
       <c r="H73">
         <v>1.1943999999999999</v>
       </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
       <c r="J73">
         <f t="shared" si="1"/>
         <v>4.9000000000001265</v>
@@ -3200,7 +3215,7 @@
         <v>6.1790668348046989</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="2">
         <v>45484</v>
       </c>
@@ -3225,6 +3240,9 @@
       <c r="H74">
         <v>1.1808000000000001</v>
       </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
       <c r="J74">
         <f t="shared" si="1"/>
         <v>-0.70000000000014495</v>
@@ -3234,7 +3252,7 @@
         <v>-1.2433392539967052</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="2">
         <v>45475</v>
       </c>
@@ -3259,6 +3277,9 @@
       <c r="H75">
         <v>1.2524</v>
       </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
       <c r="J75">
         <f t="shared" si="1"/>
         <v>2.8000000000001357</v>
@@ -3268,7 +3289,7 @@
         <v>7.7562326869809857</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="2">
         <v>45442</v>
       </c>
@@ -3293,6 +3314,9 @@
       <c r="H76">
         <v>1.2353000000000001</v>
       </c>
+      <c r="I76" t="s">
+        <v>43</v>
+      </c>
       <c r="J76">
         <f t="shared" si="1"/>
         <v>3.2999999999998586</v>
@@ -3302,7 +3326,7 @@
         <v>3.2258064516127654</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -3327,6 +3351,9 @@
       <c r="H77">
         <v>1.2343999999999999</v>
       </c>
+      <c r="I77" t="s">
+        <v>43</v>
+      </c>
       <c r="J77">
         <f t="shared" si="1"/>
         <v>1.8000000000000238</v>
@@ -3336,7 +3363,7 @@
         <v>1.7733990147783487</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="2">
         <v>45484</v>
       </c>
@@ -3361,6 +3388,9 @@
       <c r="H78">
         <v>1.2037</v>
       </c>
+      <c r="I78" t="s">
+        <v>43</v>
+      </c>
       <c r="J78">
         <f t="shared" si="1"/>
         <v>3.7000000000000366</v>
@@ -3370,7 +3400,7 @@
         <v>6.9029850746269332</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="2">
         <v>45484</v>
       </c>
@@ -3394,6 +3424,9 @@
       </c>
       <c r="H79">
         <v>1.2396</v>
+      </c>
+      <c r="I79" t="s">
+        <v>43</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6429F0-FF73-48EA-AA00-B5DBFE113051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3466F-BDB8-44DF-A66B-049DE1DF7597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
   <si>
     <t>Sampled</t>
   </si>
@@ -537,25 +537,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70:I79"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45353</v>
       </c>
@@ -623,11 +623,11 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K79" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K87" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45019</v>
       </c>
@@ -664,7 +664,7 @@
         <v>6.6339066339067223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45355</v>
       </c>
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J79" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J87" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -701,7 +701,7 @@
         <v>7.326007326007332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45355</v>
       </c>
@@ -738,7 +738,7 @@
         <v>8.1936685288639843</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45376</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9.1726618705033847</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45376</v>
       </c>
@@ -812,7 +812,7 @@
         <v>7.089552238806017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45397</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45391</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45355</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2.2865853658537452</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45397</v>
       </c>
@@ -924,7 +924,7 @@
         <v>12.315270935960601</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45385</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0.87124878993235522</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45391</v>
       </c>
@@ -998,7 +998,7 @@
         <v>13.29949238578669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45391</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>29.107142857142826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45047</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>71.755725190840266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45376</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45019</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>11.627906976744121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45376</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>4.4692737430166805</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45376</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>9.2957746478875514</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44280</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>13.79962192816609</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45400</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>45.102505694760907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45400</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>5.525846702317077</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45355</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>5.9149722735672263</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45355</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>5.2346570397110153</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45413</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>12.145748987854711</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45400</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6.4864864864861715</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45047</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>8.6021505376343566</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45355</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6.126126126126251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45355</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>11.460258780036938</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45376</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2.752293577981348</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45385</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10.609037328094443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45376</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>5.1282051282049697</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45376</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>5.6558363417568316</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45385</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>22.98850574712646</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45047</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4.2521994134899188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45355</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>4.676258992806039</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45355</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>13.120567375886656</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45385</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>-1000.132625994695</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45355</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>2.9090909090909922</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45385</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45047</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>34.965034965034221</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45400</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>5.7142857142855386</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45397</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>74.855491329479236</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45391</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>23.317865429234349</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45391</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3.231939163497954</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45404</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>10.958904109589238</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45406</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>208.39999999999924</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45025</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>42.487046632124276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45038</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>65.972222222221902</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45406</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>15.122873345935741</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45397</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>13.130252100840289</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45397</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>31.738035264483486</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45397</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>9.7500000000000355</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45420</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>8.04828973843059</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45420</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1.6666666666666885</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45404</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>8.8631984585740611</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45420</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>21.448999046711332</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45404</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>5.7142857142859302</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45420</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>1.9848771266540555</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45415</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>1.7985611510789385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45404</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>2.9978586723767813</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45415</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>15.845070422535422</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45413</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>44.265593561368256</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45415</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>5.4669703872436397</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45420</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>2.7571580063626042</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45413</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>82.442748091604145</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45413</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>25.306122448979526</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45413</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>21.192052980132324</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45415</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>5.5555555555558245</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45484</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2.6465028355384606</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45475</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>6.0185185185183698</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45484</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>-0.18181818181816178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45442</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>6.1790668348046989</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45484</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>-1.2433392539967052</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45475</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>7.7562326869809857</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45442</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>3.2258064516127654</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1.7733990147783487</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45484</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>6.9029850746269332</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45484</v>
       </c>
@@ -3435,6 +3435,302 @@
       <c r="K79">
         <f t="shared" si="0"/>
         <v>12.226277372262642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B80">
+        <v>6.6</v>
+      </c>
+      <c r="C80">
+        <v>565</v>
+      </c>
+      <c r="D80">
+        <v>1.0686</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F80">
+        <v>1.1884999999999999</v>
+      </c>
+      <c r="G80" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H80">
+        <v>1.1814</v>
+      </c>
+      <c r="I80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>7.0999999999998842</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>12.566371681415726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>560</v>
+      </c>
+      <c r="D81">
+        <v>1.1224000000000001</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F81">
+        <v>1.2423999999999999</v>
+      </c>
+      <c r="G81" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H81">
+        <v>1.2336</v>
+      </c>
+      <c r="I81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>8.799999999999919</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="0"/>
+        <v>15.714285714285568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>563</v>
+      </c>
+      <c r="D82">
+        <v>1.1046</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F82">
+        <v>1.2242</v>
+      </c>
+      <c r="G82" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H82">
+        <v>1.2197</v>
+      </c>
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999485</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="0"/>
+        <v>7.992895204262787</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>554</v>
+      </c>
+      <c r="D83">
+        <v>1.1166</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F83">
+        <v>1.2376</v>
+      </c>
+      <c r="G83" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H83">
+        <v>1.2316</v>
+      </c>
+      <c r="I83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="0"/>
+        <v>10.830324909747301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B84">
+        <v>5.5</v>
+      </c>
+      <c r="C84">
+        <v>556</v>
+      </c>
+      <c r="D84">
+        <v>1.0638000000000001</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F84">
+        <v>1.1865000000000001</v>
+      </c>
+      <c r="G84" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H84">
+        <v>1.18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>6.5000000000001723</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>11.690647482014697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>563</v>
+      </c>
+      <c r="D85">
+        <v>1.1358999999999999</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F85">
+        <v>1.2545999999999999</v>
+      </c>
+      <c r="G85" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H85">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000256</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="0"/>
+        <v>6.7495559502664761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>564</v>
+      </c>
+      <c r="D86">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F86">
+        <v>1.2343</v>
+      </c>
+      <c r="G86" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H86">
+        <v>1.2285999999999999</v>
+      </c>
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000384</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="0"/>
+        <v>10.106382978723474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B87">
+        <v>9.5</v>
+      </c>
+      <c r="C87">
+        <v>562</v>
+      </c>
+      <c r="D87">
+        <v>1.1169</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F87">
+        <v>1.2406999999999999</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45509</v>
+      </c>
+      <c r="H87">
+        <v>1.2341</v>
+      </c>
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999392</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="0"/>
+        <v>11.743772241992774</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3466F-BDB8-44DF-A66B-049DE1DF7597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111888A0-A223-47DA-8685-D104FF51624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>Sampled</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>9.Sam</t>
+  </si>
+  <si>
+    <t>SH</t>
   </si>
 </sst>
 </file>
@@ -537,25 +543,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>45353</v>
       </c>
@@ -623,11 +629,11 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K87" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K95" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>45019</v>
       </c>
@@ -664,7 +670,7 @@
         <v>6.6339066339067223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>45355</v>
       </c>
@@ -693,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J87" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J95" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -701,7 +707,7 @@
         <v>7.326007326007332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>45355</v>
       </c>
@@ -738,7 +744,7 @@
         <v>8.1936685288639843</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>45376</v>
       </c>
@@ -775,7 +781,7 @@
         <v>9.1726618705033847</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>45376</v>
       </c>
@@ -812,7 +818,7 @@
         <v>7.089552238806017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>45397</v>
       </c>
@@ -831,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>45391</v>
       </c>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>45355</v>
       </c>
@@ -887,7 +893,7 @@
         <v>2.2865853658537452</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>45397</v>
       </c>
@@ -924,7 +930,7 @@
         <v>12.315270935960601</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>45385</v>
       </c>
@@ -961,7 +967,7 @@
         <v>0.87124878993235522</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>45391</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>13.29949238578669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>45391</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>29.107142857142826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>45047</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>71.755725190840266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>45376</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>45019</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>11.627906976744121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>45376</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>4.4692737430166805</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>45376</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>9.2957746478875514</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>44280</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>13.79962192816609</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>45400</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>45.102505694760907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="2">
         <v>45400</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>5.525846702317077</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="2">
         <v>45355</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>5.9149722735672263</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>45355</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>5.2346570397110153</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="2">
         <v>45413</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>12.145748987854711</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="2">
         <v>45400</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>6.4864864864861715</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>45047</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>8.6021505376343566</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="2">
         <v>45355</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>6.126126126126251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>45355</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>11.460258780036938</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>45376</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>2.752293577981348</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="2">
         <v>45385</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>10.609037328094443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>45376</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>5.1282051282049697</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>45376</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>5.6558363417568316</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="2">
         <v>45385</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>22.98850574712646</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="2">
         <v>45047</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>4.2521994134899188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="2">
         <v>45355</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>4.676258992806039</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="2">
         <v>45355</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>13.120567375886656</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="2">
         <v>45385</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>-1000.132625994695</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="2">
         <v>45355</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>2.9090909090909922</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="2">
         <v>45385</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="2">
         <v>45047</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>34.965034965034221</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="2">
         <v>45400</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>5.7142857142855386</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="2">
         <v>45397</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>74.855491329479236</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="2">
         <v>45391</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>23.317865429234349</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="2">
         <v>45391</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>3.231939163497954</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="2">
         <v>45404</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>10.958904109589238</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="2">
         <v>45406</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>208.39999999999924</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45025</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>42.487046632124276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45038</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>65.972222222221902</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="2">
         <v>45406</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>15.122873345935741</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45397</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>13.130252100840289</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45397</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>31.738035264483486</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45397</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>9.7500000000000355</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="2">
         <v>45420</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>8.04828973843059</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="2">
         <v>45420</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>1.6666666666666885</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="2">
         <v>45404</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>8.8631984585740611</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="2">
         <v>45420</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>21.448999046711332</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="2">
         <v>45404</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>5.7142857142859302</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="2">
         <v>45420</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>1.9848771266540555</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45415</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>1.7985611510789385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45404</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>2.9978586723767813</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45415</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>15.845070422535422</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="2">
         <v>45413</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>44.265593561368256</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="2">
         <v>45415</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>5.4669703872436397</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="2">
         <v>45420</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>2.7571580063626042</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="2">
         <v>45413</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>82.442748091604145</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="2">
         <v>45413</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>25.306122448979526</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45413</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>21.192052980132324</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45415</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>5.5555555555558245</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45484</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>2.6465028355384606</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>45475</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>6.0185185185183698</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="2">
         <v>45484</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>-0.18181818181816178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="2">
         <v>45442</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>6.1790668348046989</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="2">
         <v>45484</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>-1.2433392539967052</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="2">
         <v>45475</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>7.7562326869809857</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="2">
         <v>45442</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>3.2258064516127654</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>1.7733990147783487</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="2">
         <v>45484</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>6.9029850746269332</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="2">
         <v>45484</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>12.226277372262642</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="2">
         <v>45505</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>12.566371681415726</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="2">
         <v>45502</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>15.714285714285568</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="2">
         <v>45502</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>7.992895204262787</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" s="2">
         <v>45502</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>10.830324909747301</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" s="2">
         <v>45505</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>11.690647482014697</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" s="2">
         <v>45502</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>6.7495559502664761</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" s="2">
         <v>45502</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>10.106382978723474</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" s="2">
         <v>45505</v>
       </c>
@@ -3731,6 +3737,302 @@
       <c r="K87">
         <f t="shared" si="0"/>
         <v>11.743772241992774</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A88" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>562</v>
+      </c>
+      <c r="D88">
+        <v>1.72</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F88">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="G88" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H88">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="I88" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>696.99999999999989</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="0"/>
+        <v>1240.2135231316722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A89" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>565</v>
+      </c>
+      <c r="D89">
+        <v>2.4073000000000002</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F89">
+        <v>1.3352999999999999</v>
+      </c>
+      <c r="G89" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H89">
+        <v>1.3352999999999999</v>
+      </c>
+      <c r="I89" t="s">
+        <v>45</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A90" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>560</v>
+      </c>
+      <c r="D90">
+        <v>1.7616000000000001</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F90">
+        <v>1.2265999999999999</v>
+      </c>
+      <c r="G90" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H90">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="I90" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>1.6999999999998128</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="0"/>
+        <v>3.0357142857139512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A91" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>561</v>
+      </c>
+      <c r="D91">
+        <v>1.8062</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F91">
+        <v>1.2395</v>
+      </c>
+      <c r="G91" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H91">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="I91" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>2.4999999999999467</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="0"/>
+        <v>4.4563279857396552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A92" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92">
+        <v>1075</v>
+      </c>
+      <c r="D92">
+        <v>3.3504999999999998</v>
+      </c>
+      <c r="E92" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F92">
+        <v>1.2877000000000001</v>
+      </c>
+      <c r="G92" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H92">
+        <v>1.2843</v>
+      </c>
+      <c r="I92" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000696</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="0"/>
+        <v>3.1627906976744837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A93" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B93">
+        <v>9.1</v>
+      </c>
+      <c r="C93">
+        <v>517</v>
+      </c>
+      <c r="D93">
+        <v>2.4725999999999999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F93">
+        <v>1.3554999999999999</v>
+      </c>
+      <c r="G93" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H93">
+        <v>1.3528</v>
+      </c>
+      <c r="I93" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999247</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="0"/>
+        <v>5.2224371373306084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A94" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B94">
+        <v>5.3</v>
+      </c>
+      <c r="C94">
+        <v>1029</v>
+      </c>
+      <c r="D94">
+        <v>2.4262000000000001</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F94">
+        <v>1.3311999999999999</v>
+      </c>
+      <c r="G94" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H94">
+        <v>1.3277000000000001</v>
+      </c>
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>3.4999999999998366</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="0"/>
+        <v>3.4013605442175288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A95" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B95">
+        <v>9.4</v>
+      </c>
+      <c r="C95">
+        <v>555</v>
+      </c>
+      <c r="D95">
+        <v>1.8942000000000001</v>
+      </c>
+      <c r="E95" s="3">
+        <v>45523</v>
+      </c>
+      <c r="F95">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="G95" s="3">
+        <v>45524</v>
+      </c>
+      <c r="H95">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="I95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>9.5999999999998309</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="0"/>
+        <v>17.297297297296993</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111888A0-A223-47DA-8685-D104FF51624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF2BBA7-AB7E-490B-9828-9A162B84C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,22 +546,22 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45353</v>
       </c>
@@ -633,7 +633,7 @@
         <v>75.838926174495739</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45019</v>
       </c>
@@ -670,7 +670,7 @@
         <v>6.6339066339067223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45355</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7.326007326007332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45355</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8.1936685288639843</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45376</v>
       </c>
@@ -781,7 +781,7 @@
         <v>9.1726618705033847</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45376</v>
       </c>
@@ -818,7 +818,7 @@
         <v>7.089552238806017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45397</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45391</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45355</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2.2865853658537452</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45397</v>
       </c>
@@ -930,7 +930,7 @@
         <v>12.315270935960601</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45385</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0.87124878993235522</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45391</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>13.29949238578669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45391</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>29.107142857142826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45047</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>71.755725190840266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45376</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45019</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>11.627906976744121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45376</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>4.4692737430166805</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45376</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>9.2957746478875514</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44280</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>13.79962192816609</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45400</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>45.102505694760907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45400</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>5.525846702317077</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45355</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>5.9149722735672263</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45355</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>5.2346570397110153</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45413</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>12.145748987854711</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45400</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>6.4864864864861715</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45047</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>8.6021505376343566</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45355</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>6.126126126126251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45355</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>11.460258780036938</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45376</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>2.752293577981348</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45385</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>10.609037328094443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45376</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5.1282051282049697</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45376</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>5.6558363417568316</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45385</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>22.98850574712646</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45047</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>4.2521994134899188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45355</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>4.676258992806039</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45355</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>13.120567375886656</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45385</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>-1000.132625994695</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45355</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2.9090909090909922</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45385</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45047</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>34.965034965034221</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45400</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>5.7142857142855386</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45397</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>74.855491329479236</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45391</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>23.317865429234349</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45391</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3.231939163497954</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45404</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>10.958904109589238</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45406</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>208.39999999999924</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45025</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>42.487046632124276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45038</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>65.972222222221902</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45406</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>15.122873345935741</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45397</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>13.130252100840289</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45397</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>31.738035264483486</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45397</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>9.7500000000000355</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45420</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>8.04828973843059</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45420</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1.6666666666666885</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45404</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>8.8631984585740611</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45420</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>21.448999046711332</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45404</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>5.7142857142859302</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45420</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1.9848771266540555</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45415</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1.7985611510789385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45404</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>2.9978586723767813</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45415</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>15.845070422535422</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45413</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>44.265593561368256</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45415</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>5.4669703872436397</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45420</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>2.7571580063626042</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45413</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>82.442748091604145</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45413</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>25.306122448979526</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45413</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>21.192052980132324</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45415</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>5.5555555555558245</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45484</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>2.6465028355384606</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45475</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>6.0185185185183698</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45484</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>-0.18181818181816178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45442</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>6.1790668348046989</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45484</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>-1.2433392539967052</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45475</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>7.7562326869809857</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45442</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>3.2258064516127654</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1.7733990147783487</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45484</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>6.9029850746269332</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45484</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>12.226277372262642</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45505</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>12.566371681415726</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45502</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>15.714285714285568</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45502</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>7.992895204262787</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45502</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>10.830324909747301</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45505</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>11.690647482014697</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45502</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>6.7495559502664761</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45502</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>10.106382978723474</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45505</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>11.743772241992774</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45502</v>
       </c>
@@ -3772,11 +3772,11 @@
         <v>696.99999999999989</v>
       </c>
       <c r="K88">
-        <f t="shared" si="0"/>
+        <f>J88/(C88/1000)</f>
         <v>1240.2135231316722</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45505</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45505</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>3.0357142857139512</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45505</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>4.4563279857396552</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45505</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>3.1627906976744837</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45505</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>5.2224371373306084</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45505</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>3.4013605442175288</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45505</v>
       </c>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF2BBA7-AB7E-490B-9828-9A162B84C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A961E6-545B-401F-BB84-8F285D294854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
   <si>
     <t>Sampled</t>
   </si>
@@ -543,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K95" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K100" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J95" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J100" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -4033,6 +4033,191 @@
       <c r="K95">
         <f t="shared" si="0"/>
         <v>17.297297297296993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B96">
+        <v>5.4</v>
+      </c>
+      <c r="C96">
+        <v>551</v>
+      </c>
+      <c r="D96">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45525</v>
+      </c>
+      <c r="F96">
+        <v>1.1940999999999999</v>
+      </c>
+      <c r="G96" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H96">
+        <v>1.194</v>
+      </c>
+      <c r="I96" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="0"/>
+        <v>0.18148820326676765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B97">
+        <v>6.2</v>
+      </c>
+      <c r="C97">
+        <v>462</v>
+      </c>
+      <c r="D97">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45525</v>
+      </c>
+      <c r="F97">
+        <v>1.2483</v>
+      </c>
+      <c r="G97" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H97">
+        <v>1.2468999999999999</v>
+      </c>
+      <c r="I97" t="s">
+        <v>45</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000679</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="0"/>
+        <v>3.0303030303031768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B98">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C98">
+        <v>560</v>
+      </c>
+      <c r="D98">
+        <v>1.7992999999999999</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45525</v>
+      </c>
+      <c r="F98">
+        <v>1.2303999999999999</v>
+      </c>
+      <c r="G98" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H98">
+        <v>1.2294</v>
+      </c>
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="0"/>
+        <v>1.7857142857140889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B99">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C99">
+        <v>562</v>
+      </c>
+      <c r="D99">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45525</v>
+      </c>
+      <c r="F99">
+        <v>1.2386999999999999</v>
+      </c>
+      <c r="G99" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H99">
+        <v>1.2376</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>1.0999999999998789</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="0"/>
+        <v>1.9572953736652647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B100">
+        <v>5.2</v>
+      </c>
+      <c r="C100">
+        <v>568</v>
+      </c>
+      <c r="D100">
+        <v>1.8218000000000001</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45525</v>
+      </c>
+      <c r="F100">
+        <v>1.1996</v>
+      </c>
+      <c r="G100" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H100">
+        <v>1.1972</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999577</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="0"/>
+        <v>4.2253521126759823</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A961E6-545B-401F-BB84-8F285D294854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41991A-B2BA-408C-ADB3-EA03695D972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>Sampled</t>
   </si>
@@ -543,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N114" sqref="N114"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K100" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K108" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J100" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J108" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -4218,6 +4218,302 @@
       <c r="K100">
         <f t="shared" si="0"/>
         <v>4.2253521126759823</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1060</v>
+      </c>
+      <c r="D101">
+        <v>1.0873999999999999</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F101">
+        <v>1.3194999999999999</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H101">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="I101" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>8.499999999999952</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="0"/>
+        <v>8.0188679245282568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>556</v>
+      </c>
+      <c r="D102">
+        <v>1.1223000000000001</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F102">
+        <v>1.339</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H102">
+        <v>1.3368</v>
+      </c>
+      <c r="I102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999797</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="0"/>
+        <v>3.9568345323740641</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>558</v>
+      </c>
+      <c r="D103">
+        <v>1.1051</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F103">
+        <v>1.3209</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H103">
+        <v>1.319</v>
+      </c>
+      <c r="I103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000128</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="0"/>
+        <v>3.405017921146976</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>559</v>
+      </c>
+      <c r="D104">
+        <v>1.0774999999999999</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F104">
+        <v>1.2995000000000001</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H104">
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="I104" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>6.6000000000001613</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="0"/>
+        <v>11.806797853309769</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>1077</v>
+      </c>
+      <c r="D105">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F105">
+        <v>1.3069</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H105">
+        <v>1.2948</v>
+      </c>
+      <c r="I105" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="0"/>
+        <v>11.234911792014856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>572</v>
+      </c>
+      <c r="D106">
+        <v>1.1362000000000001</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F106">
+        <v>1.3665</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H106">
+        <v>1.3612</v>
+      </c>
+      <c r="I106" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>5.3000000000000824</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="0"/>
+        <v>9.2657342657344106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>559</v>
+      </c>
+      <c r="D107">
+        <v>1.1144000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F107">
+        <v>1.3347</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H107">
+        <v>1.3326</v>
+      </c>
+      <c r="I107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999908</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="0"/>
+        <v>3.7567084078711819</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>559</v>
+      </c>
+      <c r="D108">
+        <v>1.1178999999999999</v>
+      </c>
+      <c r="E108" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F108">
+        <v>1.3354999999999999</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H108">
+        <v>1.3354999999999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>45</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41991A-B2BA-408C-ADB3-EA03695D972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DBB71-A84E-4BE4-B741-E8C6FD33E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-24075" yWindow="1125" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>Sampled</t>
   </si>
@@ -543,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K108" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K114" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J108" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J114" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -4514,6 +4514,504 @@
       <c r="K108">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>1078</v>
+      </c>
+      <c r="D109">
+        <v>1.0677000000000001</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F109">
+        <v>1.2854000000000001</v>
+      </c>
+      <c r="G109" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H109">
+        <v>1.2844</v>
+      </c>
+      <c r="I109" t="s">
+        <v>45</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="0"/>
+        <v>0.9276437847867457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>549</v>
+      </c>
+      <c r="D110">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E110" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F110">
+        <v>1.3372999999999999</v>
+      </c>
+      <c r="G110" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H110">
+        <v>1.3361000000000001</v>
+      </c>
+      <c r="I110" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>1.1999999999998678</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="0"/>
+        <v>2.185792349726535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>552</v>
+      </c>
+      <c r="D111">
+        <v>1.1052999999999999</v>
+      </c>
+      <c r="E111" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F111">
+        <v>1.3227</v>
+      </c>
+      <c r="G111" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H111">
+        <v>1.3210999999999999</v>
+      </c>
+      <c r="I111" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000458</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="0"/>
+        <v>2.8985507246377638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>563</v>
+      </c>
+      <c r="D112">
+        <v>1.0768</v>
+      </c>
+      <c r="E112" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F112">
+        <v>1.2930999999999999</v>
+      </c>
+      <c r="G112" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H112">
+        <v>1.2917000000000001</v>
+      </c>
+      <c r="I112" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>1.3999999999998458</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="0"/>
+        <v>2.4866785079926217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>556</v>
+      </c>
+      <c r="D113">
+        <v>1.0656000000000001</v>
+      </c>
+      <c r="E113" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F113">
+        <v>1.2803</v>
+      </c>
+      <c r="G113" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H113">
+        <v>1.2802</v>
+      </c>
+      <c r="I113" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="0"/>
+        <v>0.17985611510789384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>564</v>
+      </c>
+      <c r="D114">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="E114" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F114">
+        <v>1.3529</v>
+      </c>
+      <c r="G114" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H114">
+        <v>1.3519000000000001</v>
+      </c>
+      <c r="I114" t="s">
+        <v>45</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="0"/>
+        <v>1.7730496453898759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>561</v>
+      </c>
+      <c r="D115">
+        <v>2.3589000000000002</v>
+      </c>
+      <c r="E115" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F115">
+        <v>1.3017000000000001</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>560</v>
+      </c>
+      <c r="D116">
+        <v>2.3700999999999999</v>
+      </c>
+      <c r="E116" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F116">
+        <v>1.3005</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>564</v>
+      </c>
+      <c r="D117">
+        <v>2.323</v>
+      </c>
+      <c r="E117" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F117">
+        <v>1.2911999999999999</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B118">
+        <v>6.2</v>
+      </c>
+      <c r="C118">
+        <v>535</v>
+      </c>
+      <c r="D118">
+        <v>2.7660999999999998</v>
+      </c>
+      <c r="E118" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F118">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B119">
+        <v>5.6</v>
+      </c>
+      <c r="C119">
+        <v>541</v>
+      </c>
+      <c r="D119">
+        <v>2.7867999999999999</v>
+      </c>
+      <c r="E119" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F119">
+        <v>12797</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B120">
+        <v>5.2</v>
+      </c>
+      <c r="C120">
+        <v>545</v>
+      </c>
+      <c r="D120">
+        <v>2.3309000000000002</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F120">
+        <v>1.3212999999999999</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B121">
+        <v>9.4</v>
+      </c>
+      <c r="C121">
+        <v>526</v>
+      </c>
+      <c r="D121">
+        <v>2.5398999999999998</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B122">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C122">
+        <v>536</v>
+      </c>
+      <c r="D122">
+        <v>2.7149000000000001</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B123">
+        <v>5.4</v>
+      </c>
+      <c r="C123">
+        <v>546</v>
+      </c>
+      <c r="D123">
+        <v>2.7216</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B124">
+        <v>3.1</v>
+      </c>
+      <c r="C124">
+        <v>440</v>
+      </c>
+      <c r="D124">
+        <v>2.3492999999999999</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C125">
+        <v>424</v>
+      </c>
+      <c r="D125">
+        <v>2.6429</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B126">
+        <v>5.3</v>
+      </c>
+      <c r="C126">
+        <v>512</v>
+      </c>
+      <c r="D126">
+        <v>2.694</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I126" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DBB71-A84E-4BE4-B741-E8C6FD33E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843C59E-0CE0-4892-BFEE-CE0F2380D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24075" yWindow="1125" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="345" yWindow="945" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
   <si>
     <t>Sampled</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>SH</t>
+  </si>
+  <si>
+    <t>19/18/2024</t>
   </si>
 </sst>
 </file>
@@ -543,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099139EA-B059-430C-B410-93782515C830}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K114" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K126" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -699,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J114" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J126" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -4760,8 +4763,19 @@
       <c r="G115" s="2">
         <v>45565</v>
       </c>
+      <c r="H115">
+        <v>1.3002</v>
+      </c>
       <c r="I115" t="s">
         <v>45</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000568</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="0"/>
+        <v>2.6737967914439515</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4786,8 +4800,19 @@
       <c r="G116" s="2">
         <v>45565</v>
       </c>
+      <c r="H116">
+        <v>1.2999000000000001</v>
+      </c>
       <c r="I116" t="s">
         <v>45</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="0"/>
+        <v>1.0714285714284533</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4812,8 +4837,19 @@
       <c r="G117" s="2">
         <v>45565</v>
       </c>
+      <c r="H117">
+        <v>1.29</v>
+      </c>
       <c r="I117" t="s">
         <v>45</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>1.1999999999998678</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="0"/>
+        <v>2.127659574467851</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4838,8 +4874,19 @@
       <c r="G118" s="2">
         <v>45565</v>
       </c>
+      <c r="H118">
+        <v>1.3326</v>
+      </c>
       <c r="I118" t="s">
         <v>45</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>0.89999999999990088</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="0"/>
+        <v>1.6822429906540202</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4859,13 +4906,24 @@
         <v>45560</v>
       </c>
       <c r="F119">
-        <v>12797</v>
+        <v>1.2797000000000001</v>
       </c>
       <c r="G119" s="2">
         <v>45565</v>
       </c>
+      <c r="H119">
+        <v>1.2785</v>
+      </c>
       <c r="I119" t="s">
         <v>45</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000899</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="0"/>
+        <v>2.2181146025879666</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4890,8 +4948,19 @@
       <c r="G120" s="2">
         <v>45565</v>
       </c>
+      <c r="H120">
+        <v>1.3167</v>
+      </c>
       <c r="I120" t="s">
         <v>45</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999375</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="0"/>
+        <v>8.4403669724769497</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4910,8 +4979,25 @@
       <c r="E121" s="2">
         <v>45565</v>
       </c>
+      <c r="F121">
+        <v>1.2821</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H121">
+        <v>1.2810999999999999</v>
+      </c>
       <c r="I121" t="s">
         <v>45</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="0"/>
+        <v>1.9011406844108591</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -4930,8 +5016,25 @@
       <c r="E122" s="2">
         <v>45565</v>
       </c>
+      <c r="F122">
+        <v>1.3421000000000001</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H122">
+        <v>1.3398000000000001</v>
+      </c>
       <c r="I122" t="s">
         <v>45</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999687</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="0"/>
+        <v>4.2910447761193442</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -4950,8 +5053,25 @@
       <c r="E123" s="2">
         <v>45565</v>
       </c>
+      <c r="F123">
+        <v>1.3202</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H123">
+        <v>1.32</v>
+      </c>
       <c r="I123" t="s">
         <v>45</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="0"/>
+        <v>0.36630036630032592</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4970,8 +5090,25 @@
       <c r="E124" s="2">
         <v>45565</v>
       </c>
+      <c r="F124">
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H124">
+        <v>1.2935000000000001</v>
+      </c>
       <c r="I124" t="s">
         <v>45</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>5.9000000000000163</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="0"/>
+        <v>13.409090909090946</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4990,8 +5127,25 @@
       <c r="E125" s="2">
         <v>45565</v>
       </c>
+      <c r="F125">
+        <v>1.2806999999999999</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H125">
+        <v>1.2806999999999999</v>
+      </c>
       <c r="I125" t="s">
         <v>45</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,7 +5164,185 @@
       <c r="E126" s="2">
         <v>45565</v>
       </c>
+      <c r="F126">
+        <v>1.3624000000000001</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45566</v>
+      </c>
+      <c r="H126">
+        <v>1.3582000000000001</v>
+      </c>
       <c r="I126" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999815</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="0"/>
+        <v>8.2031249999999645</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B127">
+        <v>9.5</v>
+      </c>
+      <c r="C127">
+        <v>562</v>
+      </c>
+      <c r="D127">
+        <v>2.1002999999999998</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F127">
+        <v>1.3004</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C128">
+        <v>525</v>
+      </c>
+      <c r="D128">
+        <v>2.5390999999999999</v>
+      </c>
+      <c r="E128" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F128">
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>541</v>
+      </c>
+      <c r="D129">
+        <v>2.7081</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F129">
+        <v>1.2923</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130">
+        <v>6.1</v>
+      </c>
+      <c r="C130">
+        <v>548</v>
+      </c>
+      <c r="D130">
+        <v>2.7014999999999998</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F130">
+        <v>1.3352999999999999</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I130" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131">
+        <v>3.2</v>
+      </c>
+      <c r="C131">
+        <v>539</v>
+      </c>
+      <c r="D131">
+        <v>2.7374000000000001</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F131">
+        <v>1.2916000000000001</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132">
+        <v>5.5</v>
+      </c>
+      <c r="C132">
+        <v>539</v>
+      </c>
+      <c r="D132">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F132">
+        <v>1.3161</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45567</v>
+      </c>
+      <c r="I132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
         <v>45</v>
       </c>
     </row>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843C59E-0CE0-4892-BFEE-CE0F2380D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4426B2-2602-41D8-9242-652A49077BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="945" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-24420" yWindow="780" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K128" sqref="K128"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>11.299999999999866</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K126" si="0">J2/(C2/1000)</f>
+        <f t="shared" ref="K2:K132" si="0">J2/(C2/1000)</f>
         <v>75.838926174495739</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J126" si="1">(F4-H4)*1000</f>
+        <f t="shared" ref="J4:J132" si="1">(F4-H4)*1000</f>
         <v>4.0000000000000036</v>
       </c>
       <c r="K4">
@@ -5207,8 +5207,19 @@
       <c r="G127" s="2">
         <v>45567</v>
       </c>
+      <c r="H127">
+        <v>1.3001</v>
+      </c>
       <c r="I127" t="s">
         <v>45</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="0"/>
+        <v>0.53380782918143577</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5233,11 +5244,22 @@
       <c r="G128" s="2">
         <v>45567</v>
       </c>
+      <c r="H128">
+        <v>1.2985</v>
+      </c>
       <c r="I128" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="0"/>
+        <v>1.7142857142859484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>46</v>
       </c>
@@ -5259,11 +5281,22 @@
       <c r="G129" s="2">
         <v>45567</v>
       </c>
+      <c r="H129">
+        <v>1.2917000000000001</v>
+      </c>
       <c r="I129" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="0"/>
+        <v>1.1090573012937779</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>46</v>
       </c>
@@ -5285,11 +5318,22 @@
       <c r="G130" s="2">
         <v>45567</v>
       </c>
+      <c r="H130">
+        <v>1.3320000000000001</v>
+      </c>
       <c r="I130" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>3.2999999999998586</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="0"/>
+        <v>6.0218978102187197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>46</v>
       </c>
@@ -5311,11 +5355,22 @@
       <c r="G131" s="2">
         <v>45567</v>
       </c>
+      <c r="H131">
+        <v>1.2887</v>
+      </c>
       <c r="I131" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <f t="shared" si="1"/>
+        <v>2.9000000000001247</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="0"/>
+        <v>5.3803339517627542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -5337,11 +5392,22 @@
       <c r="G132" s="2">
         <v>45567</v>
       </c>
+      <c r="H132">
+        <v>1.3153999999999999</v>
+      </c>
       <c r="I132" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <f t="shared" si="1"/>
+        <v>0.70000000000014495</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="0"/>
+        <v>1.2987012987015676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
         <v>45</v>
       </c>

--- a/01_Raw_data/POC.xlsx
+++ b/01_Raw_data/POC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4426B2-2602-41D8-9242-652A49077BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3920F94-855F-4052-BBDE-9B8AF96F69D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24420" yWindow="780" windowWidth="18900" windowHeight="10965" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8C412AF-B8A1-4AEE-883E-CEDC17E06380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
   <si>
     <t>Sampled</t>
   </si>
@@ -175,14 +175,14 @@
   <si>
     <t>SH</t>
   </si>
-  <si>
-    <t>19/18/2024</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,6 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,13 +551,13 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -565,7 +567,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -600,7 +602,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>45353</v>
       </c>
       <c r="B2">
@@ -637,7 +639,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>45019</v>
       </c>
       <c r="B3">
@@ -674,7 +676,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>45355</v>
       </c>
       <c r="B4" t="s">
@@ -711,7 +713,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>45355</v>
       </c>
       <c r="B5">
@@ -748,7 +750,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>45376</v>
       </c>
       <c r="B6">
@@ -785,7 +787,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>45376</v>
       </c>
       <c r="B7">
@@ -822,7 +824,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>45397</v>
       </c>
       <c r="B8" t="s">
@@ -841,7 +843,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>45391</v>
       </c>
       <c r="B9" t="s">
@@ -860,7 +862,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>45355</v>
       </c>
       <c r="B10">
@@ -897,7 +899,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>45397</v>
       </c>
       <c r="B11" t="s">
@@ -934,7 +936,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>45385</v>
       </c>
       <c r="B12">
@@ -971,7 +973,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>45391</v>
       </c>
       <c r="B13">
@@ -1008,7 +1010,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>45391</v>
       </c>
       <c r="B14">
@@ -1045,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>45047</v>
       </c>
       <c r="B15">
@@ -1082,7 +1084,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>45376</v>
       </c>
       <c r="B16">
@@ -1119,7 +1121,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>45019</v>
       </c>
       <c r="B17">
@@ -1156,7 +1158,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>45376</v>
       </c>
       <c r="B18">
@@ -1193,7 +1195,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>45376</v>
       </c>
       <c r="B19">
@@ -1230,7 +1232,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>44280</v>
       </c>
       <c r="B20">
@@ -1267,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>45400</v>
       </c>
       <c r="B21" t="s">
@@ -1304,7 +1306,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>45400</v>
       </c>
       <c r="B22">
@@ -1341,7 +1343,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="8">
         <v>45355</v>
       </c>
       <c r="B23" t="s">
@@ -1378,7 +1380,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="8">
         <v>45355</v>
       </c>
       <c r="B24">
@@ -1415,7 +1417,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="8">
         <v>45413</v>
       </c>
       <c r="B25">
@@ -1452,7 +1454,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>45400</v>
       </c>
       <c r="B26">
@@ -1489,7 +1491,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="8">
         <v>45047</v>
       </c>
       <c r="B27">
@@ -1526,7 +1528,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="8">
         <v>45355</v>
       </c>
       <c r="B28">
@@ -1563,7 +1565,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="8">
         <v>45355</v>
       </c>
       <c r="B29">
@@ -1600,7 +1602,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="8">
         <v>45376</v>
       </c>
       <c r="B30">
@@ -1637,7 +1639,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="8">
         <v>45385</v>
       </c>
       <c r="B31">
@@ -1674,7 +1676,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="8">
         <v>45376</v>
       </c>
       <c r="B32" t="s">
@@ -1711,7 +1713,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="8">
         <v>45376</v>
       </c>
       <c r="B33">
@@ -1748,7 +1750,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="8">
         <v>45385</v>
       </c>
       <c r="B34" t="s">
@@ -1785,7 +1787,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="8">
         <v>45047</v>
       </c>
       <c r="B35">
@@ -1822,7 +1824,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="8">
         <v>45355</v>
       </c>
       <c r="B36">
@@ -1859,7 +1861,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="8">
         <v>45355</v>
       </c>
       <c r="B37">
@@ -1896,7 +1898,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="8">
         <v>45385</v>
       </c>
       <c r="B38">
@@ -1933,7 +1935,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="8">
         <v>45355</v>
       </c>
       <c r="B39">
@@ -1970,7 +1972,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="8">
         <v>45385</v>
       </c>
       <c r="B40">
@@ -2004,7 +2006,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="8">
         <v>45047</v>
       </c>
       <c r="B41" t="s">
@@ -2041,7 +2043,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="8">
         <v>45400</v>
       </c>
       <c r="B42" t="s">
@@ -2078,7 +2080,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="8">
         <v>45397</v>
       </c>
       <c r="B43" t="s">
@@ -2115,7 +2117,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="8">
         <v>45391</v>
       </c>
       <c r="B44" t="s">
@@ -2152,7 +2154,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="8">
         <v>45391</v>
       </c>
       <c r="B45" t="s">
@@ -2189,7 +2191,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="8">
         <v>45404</v>
       </c>
       <c r="B46" t="s">
@@ -2226,7 +2228,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="8">
         <v>45406</v>
       </c>
       <c r="B47" t="s">
@@ -2263,7 +2265,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="8">
         <v>45025</v>
       </c>
       <c r="B48" t="s">
@@ -2300,7 +2302,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="8">
         <v>45038</v>
       </c>
       <c r="B49" t="s">
@@ -2337,7 +2339,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="8">
         <v>45406</v>
       </c>
       <c r="B50" t="s">
@@ -2374,7 +2376,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="8">
         <v>45397</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2411,7 +2413,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="8">
         <v>45397</v>
       </c>
       <c r="B52" t="s">
@@ -2448,7 +2450,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="8">
         <v>45397</v>
       </c>
       <c r="B53" t="s">
@@ -2485,7 +2487,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="8">
         <v>45420</v>
       </c>
       <c r="B54">
@@ -2522,7 +2524,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="8">
         <v>45420</v>
       </c>
       <c r="B55">
@@ -2559,7 +2561,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="8">
         <v>45404</v>
       </c>
       <c r="B56" t="s">
@@ -2596,7 +2598,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="8">
         <v>45420</v>
       </c>
       <c r="B57">
@@ -2633,7 +2635,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="8">
         <v>45404</v>
       </c>
       <c r="B58" t="s">
@@ -2670,7 +2672,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="8">
         <v>45420</v>
       </c>
       <c r="B59">
@@ -2707,7 +2709,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="8">
         <v>45415</v>
       </c>
       <c r="B60" t="s">
@@ -2744,7 +2746,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="8">
         <v>45404</v>
       </c>
       <c r="B61" t="s">
@@ -2781,7 +2783,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="8">
         <v>45415</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2818,7 +2820,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="8">
         <v>45413</v>
       </c>
       <c r="B63" t="s">
@@ -2855,7 +2857,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="8">
         <v>45415</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2892,7 +2894,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="8">
         <v>45420</v>
       </c>
       <c r="B65">
@@ -2929,7 +2931,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="8">
         <v>45413</v>
       </c>
       <c r="B66" t="s">
@@ -2966,7 +2968,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="8">
         <v>45413</v>
       </c>
       <c r="B67" t="s">
@@ -3003,7 +3005,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="8">
         <v>45413</v>
       </c>
       <c r="B68" t="s">
@@ -3040,7 +3042,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="8">
         <v>45415</v>
       </c>
       <c r="B69" t="s">
@@ -3077,7 +3079,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="8">
         <v>45484</v>
       </c>
       <c r="B70">
@@ -3114,7 +3116,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="8">
         <v>45475</v>
       </c>
       <c r="B71" t="s">
@@ -3151,7 +3153,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="8">
         <v>45484</v>
       </c>
       <c r="B72">
@@ -3188,7 +3190,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="8">
         <v>45442</v>
       </c>
       <c r="B73">
@@ -3225,7 +3227,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="8">
         <v>45484</v>
       </c>
       <c r="B74" t="s">
@@ -3262,7 +3264,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="8">
         <v>45475</v>
       </c>
       <c r="B75" t="s">
@@ -3299,7 +3301,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="8">
         <v>45442</v>
       </c>
       <c r="B76">
@@ -3336,7 +3338,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="8">
         <v>45442</v>
       </c>
       <c r="B77">
@@ -3373,7 +3375,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="8">
         <v>45484</v>
       </c>
       <c r="B78">
@@ -3410,7 +3412,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="8">
         <v>45484</v>
       </c>
       <c r="B79">
@@ -3447,7 +3449,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="8">
         <v>45505</v>
       </c>
       <c r="B80">
@@ -3484,7 +3486,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="8">
         <v>45502</v>
       </c>
       <c r="B81">
@@ -3521,7 +3523,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="8">
         <v>45502</v>
       </c>
       <c r="B82">
@@ -3558,7 +3560,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="8">
         <v>45502</v>
       </c>
       <c r="B83">
@@ -3595,7 +3597,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="8">
         <v>45505</v>
       </c>
       <c r="B84">
@@ -3632,7 +3634,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="8">
         <v>45502</v>
       </c>
       <c r="B85" t="s">
@@ -3669,7 +3671,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="8">
         <v>45502</v>
       </c>
       <c r="B86">
@@ -3706,7 +3708,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="8">
         <v>45505</v>
       </c>
       <c r="B87">
@@ -3743,7 +3745,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="8">
         <v>45502</v>
       </c>
       <c r="B88" t="s">
@@ -3780,7 +3782,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="8">
         <v>45505</v>
       </c>
       <c r="B89">
@@ -3817,7 +3819,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="8">
         <v>45505</v>
       </c>
       <c r="B90">
@@ -3854,7 +3856,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="8">
         <v>45505</v>
       </c>
       <c r="B91">
@@ -3891,7 +3893,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="8">
         <v>45505</v>
       </c>
       <c r="B92" t="s">
@@ -3928,7 +3930,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="8">
         <v>45505</v>
       </c>
       <c r="B93">
@@ -3965,7 +3967,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="8">
         <v>45505</v>
       </c>
       <c r="B94">
@@ -4002,7 +4004,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="8">
         <v>45505</v>
       </c>
       <c r="B95">
@@ -4039,7 +4041,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="8">
         <v>45505</v>
       </c>
       <c r="B96">
@@ -4076,7 +4078,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="8">
         <v>45505</v>
       </c>
       <c r="B97">
@@ -4113,7 +4115,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="8">
         <v>45505</v>
       </c>
       <c r="B98">
@@ -4150,7 +4152,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="8">
         <v>45505</v>
       </c>
       <c r="B99">
@@ -4187,7 +4189,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="8">
         <v>45505</v>
       </c>
       <c r="B100">
@@ -4224,7 +4226,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="8">
         <v>45526</v>
       </c>
       <c r="B101">
@@ -4261,7 +4263,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="8">
         <v>45527</v>
       </c>
       <c r="B102">
@@ -4298,7 +4300,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="8">
         <v>45527</v>
       </c>
       <c r="B103">
@@ -4335,7 +4337,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="8">
         <v>45527</v>
       </c>
       <c r="B104">
@@ -4372,7 +4374,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="8">
         <v>45526</v>
       </c>
       <c r="B105" t="s">
@@ -4409,7 +4411,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="8">
         <v>45527</v>
       </c>
       <c r="B106" t="s">
@@ -4446,7 +4448,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="8">
         <v>45527</v>
       </c>
       <c r="B107">
@@ -4483,7 +4485,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="8">
         <v>45527</v>
       </c>
       <c r="B108">
@@ -4520,7 +4522,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="8">
         <v>45548</v>
       </c>
       <c r="B109">
@@ -4557,7 +4559,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="8">
         <v>45548</v>
       </c>
       <c r="B110">
@@ -4594,7 +4596,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="8">
         <v>45548</v>
       </c>
       <c r="B111">
@@ -4631,7 +4633,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="8">
         <v>45548</v>
       </c>
       <c r="B112" t="s">
@@ -4668,7 +4670,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="8">
         <v>45548</v>
       </c>
       <c r="B113">
@@ -4705,7 +4707,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="8">
         <v>45548</v>
       </c>
       <c r="B114">
@@ -4742,7 +4744,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="8">
         <v>45548</v>
       </c>
       <c r="B115">
@@ -4779,7 +4781,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="8">
         <v>45548</v>
       </c>
       <c r="B116" t="s">
@@ -4816,7 +4818,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="8">
         <v>45548</v>
       </c>
       <c r="B117">
@@ -4853,7 +4855,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="8">
         <v>45553</v>
       </c>
       <c r="B118">
@@ -4890,7 +4892,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="8">
         <v>45553</v>
       </c>
       <c r="B119">
@@ -4927,7 +4929,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="8">
         <v>45553</v>
       </c>
       <c r="B120">
@@ -4964,7 +4966,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="8">
         <v>45553</v>
       </c>
       <c r="B121">
@@ -5001,7 +5003,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="8">
         <v>45553</v>
       </c>
       <c r="B122">
@@ -5038,7 +5040,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="8">
         <v>45553</v>
       </c>
       <c r="B123">
@@ -5075,7 +5077,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="8">
         <v>45553</v>
       </c>
       <c r="B124">
@@ -5112,7 +5114,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="8">
         <v>45553</v>
       </c>
       <c r="B125">
@@ -5149,7 +5151,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="8">
         <v>45553</v>
       </c>
       <c r="B126">
@@ -5186,7 +5188,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="8">
         <v>45527</v>
       </c>
       <c r="B127">
@@ -5223,8 +5225,8 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>46</v>
+      <c r="A128" s="8">
+        <v>45553</v>
       </c>
       <c r="B128">
         <v>9.1999999999999993</v>
@@ -5260,8 +5262,8 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>46</v>
+      <c r="A129" s="8">
+        <v>45553</v>
       </c>
       <c r="B129">
         <v>9</v>
@@ -5297,8 +5299,8 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>46</v>
+      <c r="A130" s="8">
+        <v>45553</v>
       </c>
       <c r="B130">
         <v>6.1</v>
@@ -5334,8 +5336,8 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>46</v>
+      <c r="A131" s="8">
+        <v>45553</v>
       </c>
       <c r="B131">
         <v>3.2</v>
@@ -5371,8 +5373,8 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>46</v>
+      <c r="A132" s="8">
+        <v>45553</v>
       </c>
       <c r="B132">
         <v>5.5</v>
